--- a/biology/Zoologie/Allonemobius_allardi/Allonemobius_allardi.xlsx
+++ b/biology/Zoologie/Allonemobius_allardi/Allonemobius_allardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Némobie des prés
-Allonemobius allardi, communément appelé Némobie des prés[2], est une espèce de grillons présente en Amérique du Nord.
+Allonemobius allardi, communément appelé Némobie des prés, est une espèce de grillons présente en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Allonemobius allardi a été décrite par Richard D. Alexander (d) et Edward Sinclair Thomas (d) en 1959 sous le protonyme de Nemobius allardi.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cette espèce dans le Sud du Canada (de la Nouvelle-Écosse à la Colombie-Britannique) et dans une grande partie de l'Est et du Nord des États-Unis.
 </t>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Némobie des prés occupe les habitats ouverts et herbeux[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Némobie des prés occupe les habitats ouverts et herbeux. 
 </t>
         </is>
       </c>
